--- a/documentaion/Жалонни точки.xlsx
+++ b/documentaion/Жалонни точки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hylla\Documents\UNI\6-ти семестър\УСП\Проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95D9A0-C504-4E19-A67C-16909273A642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BD470C-43C2-4F3F-9CA8-D6EFBAF3688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,10 +71,10 @@
     <t>Функционалностите на проекта са тествани.</t>
   </si>
   <si>
-    <t>Работата с уеб приложението е документарина.</t>
-  </si>
-  <si>
     <t>Документирани са отчетите и свършената работа.</t>
+  </si>
+  <si>
+    <t>Кодът е оптимизиран.</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="F3:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G16"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">

--- a/documentaion/Жалонни точки.xlsx
+++ b/documentaion/Жалонни точки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hylla\Documents\UNI\6-ти семестър\УСП\Проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BD470C-43C2-4F3F-9CA8-D6EFBAF3688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6788A1-134D-4879-A6DB-5C176764F9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Начинът на комуникация, целта на проекта и ролите в екипа са планирани</t>
   </si>
   <si>
-    <t>Избрани са технологиите, определени са времето и бюджета.</t>
-  </si>
-  <si>
     <t>Конкуренцията и средата за разработка са проучени.</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Кодът е оптимизиран.</t>
+  </si>
+  <si>
+    <t>Избрани са технологиите, определени са рисковете, времето и бюджета.</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="F3:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.3">
@@ -579,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.3">
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.3">
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.3">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.3">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="6:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
